--- a/Luban/Configs/Datas/__tables__.xlsx
+++ b/Luban/Configs/Datas/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D7F3F2-FC80-4E92-9AA3-E697191E08DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA558CDC-00FF-4BFB-93A9-93C33EC46B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10305" yWindow="3705" windowWidth="25395" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="2655" windowWidth="25395" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Luban/Configs/Datas/__tables__.xlsx
+++ b/Luban/Configs/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA558CDC-00FF-4BFB-93A9-93C33EC46B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDC3CE0-D3A7-471D-A168-93CF46A41946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="2655" windowWidth="25395" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -67,96 +67,125 @@
     <t>记录类名</t>
   </si>
   <si>
+    <t>文件列表</t>
+  </si>
+  <si>
+    <t>表id字段</t>
+  </si>
+  <si>
+    <t>模式</t>
+  </si>
+  <si>
+    <t>分组</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>分支文件列表</t>
+  </si>
+  <si>
+    <t>输出文件名</t>
+  </si>
+  <si>
+    <t>可以多个，以逗号','分隔</t>
+  </si>
+  <si>
+    <t>为空的话自动取value_type中第一个字段,多主键联合索引为key1+key2,多主键独立索引为"key1,key2"</t>
+  </si>
+  <si>
+    <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
+  </si>
+  <si>
+    <t>t_damage.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>db.TbDamage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>db.TbMap</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageCfg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapCfg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_map.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_model_info.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>db.TbModelInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelInfoCfg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_skill.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillCfg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>db.TbSkill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>从excel读取定义</t>
-  </si>
-  <si>
-    <t>文件列表</t>
-  </si>
-  <si>
-    <t>表id字段</t>
-  </si>
-  <si>
-    <t>模式</t>
-  </si>
-  <si>
-    <t>分组</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>分支文件列表</t>
-  </si>
-  <si>
-    <t>输出文件名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>false时取已有定义，true为从excel标题头和属性栏读取定义</t>
-  </si>
-  <si>
-    <t>可以多个，以逗号','分隔</t>
-  </si>
-  <si>
-    <t>为空的话自动取value_type中第一个字段,多主键联合索引为key1+key2,多主键独立索引为"key1,key2"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>取值one|map|list，为空自动为map</t>
-  </si>
-  <si>
-    <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>用于本地化。可以多个，以逗号分隔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
-  </si>
-  <si>
-    <t>t_damage.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>db.TbDamage</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>db.TbMap</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageCfg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MapCfg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_map.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_model_info.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>db.TbModelInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ModelInfoCfg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_skill.xlsx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillCfg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>db.TbSkill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>db.TbMonster</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_monster.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterCfg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>db.TbMonster_Refresh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterRefreshCfg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_monster_refresh.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -512,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -577,28 +606,28 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -606,81 +635,109 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Configs/Datas/__tables__.xlsx
+++ b/Luban/Configs/Datas/__tables__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDC3CE0-D3A7-471D-A168-93CF46A41946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B1EB9B-E2E8-4682-BB76-5572DEC4E562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -186,6 +186,18 @@
   </si>
   <si>
     <t>t_monster_refresh.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>db.TbEffect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCfg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_effect.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -541,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -740,6 +752,20 @@
         <v>47</v>
       </c>
     </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Configs/Datas/__tables__.xlsx
+++ b/Luban/Configs/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B1EB9B-E2E8-4682-BB76-5572DEC4E562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC9BE39-80E9-42A5-A542-EE3FAA96802C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -198,6 +198,18 @@
   </si>
   <si>
     <t>t_effect.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>db.TbRole</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleCfg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_role.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -766,6 +778,20 @@
         <v>50</v>
       </c>
     </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Configs/Datas/__tables__.xlsx
+++ b/Luban/Configs/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC9BE39-80E9-42A5-A542-EE3FAA96802C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51788FC3-6323-4896-A3D1-47C1DDC246E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -210,6 +210,18 @@
   </si>
   <si>
     <t>t_role.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>db.TbItemweapon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemweaponCfg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_item_weapon.xlsx</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -565,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -792,6 +804,20 @@
         <v>53</v>
       </c>
     </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
